--- a/mock/Equipmentliste mit stats.xlsx
+++ b/mock/Equipmentliste mit stats.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="22116" windowHeight="9552"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="22116" windowHeight="9552" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
     <sheet name="Item stats" sheetId="2" r:id="rId2"/>
-    <sheet name="Fähigkeiten stats" sheetId="3" r:id="rId3"/>
+    <sheet name="Item stats spezial" sheetId="4" r:id="rId3"/>
+    <sheet name="Fähigkeiten stats" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="176">
   <si>
     <t>Gegenständklasse:</t>
   </si>
@@ -33,9 +34,6 @@
     <t xml:space="preserve">Amulett: </t>
   </si>
   <si>
-    <t>Arkaner Ring</t>
-  </si>
-  <si>
     <t>Standardt Amulett</t>
   </si>
   <si>
@@ -45,9 +43,6 @@
     <t>Socken Sandalen</t>
   </si>
   <si>
-    <t>Hufe</t>
-  </si>
-  <si>
     <t>Standardt Boots</t>
   </si>
   <si>
@@ -57,33 +52,18 @@
     <t>Dampfhammeruhr 3000</t>
   </si>
   <si>
-    <t>Der eine Ring (Herr der Ringe Ring)</t>
-  </si>
-  <si>
     <t>Standardt Ring</t>
   </si>
   <si>
     <t>Torso:</t>
   </si>
   <si>
-    <t>Enges Outfit (Borats lieblingsfetzen)</t>
-  </si>
-  <si>
-    <t>Arkanes Outfit</t>
-  </si>
-  <si>
     <t>Standardt Outfit</t>
   </si>
   <si>
     <t xml:space="preserve">Helm: </t>
   </si>
   <si>
-    <t>Mauszeiger</t>
-  </si>
-  <si>
-    <t>Vikinger Helm</t>
-  </si>
-  <si>
     <t>Standardt Helm</t>
   </si>
   <si>
@@ -144,9 +124,6 @@
     <t>Int / Intelligenz</t>
   </si>
   <si>
-    <t>Const / Konstitution</t>
-  </si>
-  <si>
     <t>Blingbling /Famefaktor</t>
   </si>
   <si>
@@ -234,9 +211,6 @@
     <t>Shield</t>
   </si>
   <si>
-    <t>Arkaner Klostein (Klosteinamulett)</t>
-  </si>
-  <si>
     <t>Klostein Amulett (str)</t>
   </si>
   <si>
@@ -261,10 +235,316 @@
     <t>Sandalen mit Socken (int)</t>
   </si>
   <si>
-    <t>str summe</t>
-  </si>
-  <si>
     <t>Bereits implementiert</t>
+  </si>
+  <si>
+    <t>Amulett</t>
+  </si>
+  <si>
+    <t>Boots</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>Outfit</t>
+  </si>
+  <si>
+    <t>Helm</t>
+  </si>
+  <si>
+    <t>Wert für Spezialisierung</t>
+  </si>
+  <si>
+    <t>Spezial</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>aus Standard</t>
+  </si>
+  <si>
+    <t>Spezial item</t>
+  </si>
+  <si>
+    <t>Standard item</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Wert für Blingbling</t>
+  </si>
+  <si>
+    <t>Sekundärwert für alle anderen stats bei Items</t>
+  </si>
+  <si>
+    <t>20 % 4 = 5</t>
+  </si>
+  <si>
+    <t>15 % 3 = 3</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
+    <t>neck</t>
+  </si>
+  <si>
+    <t>Wenn weitere items hinzukommen</t>
+  </si>
+  <si>
+    <t>Typen</t>
+  </si>
+  <si>
+    <t>Name stats</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Target/Ziel</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>Stun</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>Attack: {"factor": 1}</t>
+  </si>
+  <si>
+    <t>Heal: {"base": 20, "attr": "int", "rnd": .6 }</t>
+  </si>
+  <si>
+    <t>Stun: {"duration": 3, "attr": "dex" }</t>
+  </si>
+  <si>
+    <t>Buff: {"duration": 3, "value": -15 }</t>
+  </si>
+  <si>
+    <t>Effects/Effekte</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Typ/Effect</t>
+  </si>
+  <si>
+    <t>buff</t>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>heal, attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self </t>
+  </si>
+  <si>
+    <t>single nur ein effekt möglich</t>
+  </si>
+  <si>
+    <t>Bein stellen</t>
+  </si>
+  <si>
+    <t>stun</t>
+  </si>
+  <si>
+    <t>20 insgesamt an mana</t>
+  </si>
+  <si>
+    <t>Attack: {"factor": 2}</t>
+  </si>
+  <si>
+    <t>Schaden verdoppeln</t>
+  </si>
+  <si>
+    <t>Stun: {"duration": 2, "attr": "dex" }</t>
+  </si>
+  <si>
+    <t>Heal: {"base": 40, "attr": "int", "rnd": .6 }</t>
+  </si>
+  <si>
+    <t>Attack: {"factor": 0.2}</t>
+  </si>
+  <si>
+    <t>Attack: {"factor": 2.3}</t>
+  </si>
+  <si>
+    <t>Buff: {"duration": 3, "value": "5" }</t>
+  </si>
+  <si>
+    <t>Attack: {"factor": 2.5}</t>
+  </si>
+  <si>
+    <t>Mächtige Hand</t>
+  </si>
+  <si>
+    <t>Faust Gottes</t>
+  </si>
+  <si>
+    <t>Rage</t>
+  </si>
+  <si>
+    <t>Attack: {"factor": 1.5}</t>
+  </si>
+  <si>
+    <t>Heilen</t>
+  </si>
+  <si>
+    <t>Reib die Gurke</t>
+  </si>
+  <si>
+    <t>Vaseline</t>
+  </si>
+  <si>
+    <t>Geiler Vikinger Helm</t>
+  </si>
+  <si>
+    <t>Erotisches Outfit</t>
+  </si>
+  <si>
+    <t>Trabbelhufe des Trippers</t>
+  </si>
+  <si>
+    <t>Dubstep-ring</t>
+  </si>
+  <si>
+    <t>Dubstep-ring (str)</t>
+  </si>
+  <si>
+    <t>Dubstep-ring (def)</t>
+  </si>
+  <si>
+    <t>Dubstep-ring (dex)</t>
+  </si>
+  <si>
+    <t>Dubstep-ring (int)</t>
+  </si>
+  <si>
+    <t>Trabbelhufe des Trippers (str)</t>
+  </si>
+  <si>
+    <t>Der eine Ring (str)</t>
+  </si>
+  <si>
+    <t>Mauszeigerhut</t>
+  </si>
+  <si>
+    <t>Borats lieblingsfetzen</t>
+  </si>
+  <si>
+    <t>Der eine Ring</t>
+  </si>
+  <si>
+    <t>Klosteinamulett</t>
+  </si>
+  <si>
+    <t>Dampfhammeruhr 3000 (str)</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Dex</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klostein Amulett </t>
+  </si>
+  <si>
+    <t>Sandalen mit Socken</t>
+  </si>
+  <si>
+    <t>Getrockneter Tigerhoden</t>
+  </si>
+  <si>
+    <t>Möbiusstreifen</t>
+  </si>
+  <si>
+    <t>Das gewisse Nichts</t>
+  </si>
+  <si>
+    <t>Panflötenmaske</t>
+  </si>
+  <si>
+    <t>boots</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>helmet</t>
+  </si>
+  <si>
+    <t>Mettwurststiefeletten</t>
+  </si>
+  <si>
+    <t>Stärke</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Agilität</t>
+  </si>
+  <si>
+    <t>Intelekt</t>
+  </si>
+  <si>
+    <t>Anaboliker</t>
+  </si>
+  <si>
+    <t>Härte</t>
+  </si>
+  <si>
+    <t>Windigkeit</t>
+  </si>
+  <si>
+    <t>Nerdy</t>
+  </si>
+  <si>
+    <t>Nerdy Boots (Standard)</t>
+  </si>
+  <si>
+    <t>Amulett für Anaboliker (Standard)</t>
+  </si>
+  <si>
+    <t>Amulett der Windigkeit (Standard)</t>
+  </si>
+  <si>
+    <t>Helm der Härte (Standard)</t>
+  </si>
+  <si>
+    <t>Rüstung der Nerdygkeit (Standard)</t>
   </si>
 </sst>
 </file>
@@ -296,17 +576,58 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -316,8 +637,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -325,6 +647,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -626,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,206 +969,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
+      <c r="B7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
+      <c r="A9" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>33</v>
+      <c r="A10" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
+      <c r="A11" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>31</v>
+      <c r="A12" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>34</v>
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>24</v>
+      <c r="A17" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>25</v>
+      <c r="A18" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>26</v>
+      <c r="A19" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>27</v>
+      <c r="A20" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>28</v>
+      <c r="A21" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>29</v>
+      <c r="A22" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="A23" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>82</v>
+      <c r="A25" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -849,93 +1228,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
-    <col min="2" max="8" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1"/>
+      <c r="L1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1"/>
+      <c r="N1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>47</v>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="L2" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>45</v>
+      <c r="F3" s="7">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="L3" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -944,21 +1365,36 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>44</v>
+      <c r="F4" s="7">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -966,279 +1402,1073 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5" s="9">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6" s="9">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="1">
+        <f>SUM(I2:I6)</f>
+        <v>40</v>
+      </c>
+      <c r="J7" s="10">
+        <f>SUM(J2:J6)</f>
+        <v>60</v>
+      </c>
+      <c r="L7" s="13">
+        <f>SUM(L2:L6)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="L10" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="L11" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>10</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(I10:I14)</f>
+        <v>35</v>
+      </c>
+      <c r="J15" s="10">
+        <f>SUM(J10:J14)</f>
+        <v>60</v>
+      </c>
+      <c r="L15" s="13">
+        <f>SUM(L10:L14)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="F5" s="6">
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="J19" s="7">
+        <v>5</v>
+      </c>
+      <c r="L19" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7">
+        <v>5</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>5</v>
+      </c>
+      <c r="L20" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="7">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="J21" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="K21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="7">
         <v>3</v>
       </c>
-      <c r="G6" s="6">
+      <c r="J22" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="K22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>5</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2</v>
+      </c>
+      <c r="J23" s="7">
+        <v>2</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7">
+        <v>5</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="1">
+        <f>SUM(I19:I23)</f>
+        <v>9</v>
+      </c>
+      <c r="J24" s="10">
+        <f>SUM(J19:J23)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="G16" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="G17">
+      <c r="B25">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="C25">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="D25">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="G21" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="G31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="6">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28" s="7">
+        <v>15</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="6">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="6">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="G36" s="6">
-        <v>-2</v>
-      </c>
+      <c r="J28" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
+      <c r="F30" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33"/>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34"/>
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35"/>
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G36"/>
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>15</v>
+      </c>
+      <c r="F46" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="7">
+        <v>10</v>
+      </c>
+      <c r="C48" s="7">
+        <v>5</v>
+      </c>
+      <c r="D48" s="7">
+        <v>5</v>
+      </c>
+      <c r="E48" s="7">
+        <v>5</v>
+      </c>
+      <c r="F48" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="7">
+        <v>5</v>
+      </c>
+      <c r="C49" s="7">
+        <v>10</v>
+      </c>
+      <c r="D49" s="7">
+        <v>5</v>
+      </c>
+      <c r="E49" s="7">
+        <v>5</v>
+      </c>
+      <c r="F49" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="7">
+        <v>5</v>
+      </c>
+      <c r="C50" s="7">
+        <v>5</v>
+      </c>
+      <c r="D50" s="7">
+        <v>10</v>
+      </c>
+      <c r="E50" s="7">
+        <v>5</v>
+      </c>
+      <c r="F50" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="7">
+        <v>5</v>
+      </c>
+      <c r="C51" s="7">
+        <v>5</v>
+      </c>
+      <c r="D51" s="7">
+        <v>5</v>
+      </c>
+      <c r="E51" s="7">
+        <v>10</v>
+      </c>
+      <c r="F51" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="7">
+        <v>15</v>
+      </c>
+      <c r="C53" s="7">
+        <v>5</v>
+      </c>
+      <c r="D53" s="7">
+        <v>5</v>
+      </c>
+      <c r="E53" s="7">
+        <v>5</v>
+      </c>
+      <c r="F53" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="7">
+        <v>5</v>
+      </c>
+      <c r="C54" s="7">
+        <v>15</v>
+      </c>
+      <c r="D54" s="7">
+        <v>5</v>
+      </c>
+      <c r="E54" s="7">
+        <v>5</v>
+      </c>
+      <c r="F54" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="7">
+        <v>5</v>
+      </c>
+      <c r="C55" s="7">
+        <v>5</v>
+      </c>
+      <c r="D55" s="7">
+        <v>15</v>
+      </c>
+      <c r="E55" s="7">
+        <v>5</v>
+      </c>
+      <c r="F55" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="7">
+        <v>5</v>
+      </c>
+      <c r="C56" s="7">
+        <v>5</v>
+      </c>
+      <c r="D56" s="7">
+        <v>5</v>
+      </c>
+      <c r="E56" s="7">
+        <v>15</v>
+      </c>
+      <c r="F56" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="7">
+        <v>10</v>
+      </c>
+      <c r="C58" s="7">
+        <v>5</v>
+      </c>
+      <c r="D58" s="7">
+        <v>5</v>
+      </c>
+      <c r="E58" s="7">
+        <v>5</v>
+      </c>
+      <c r="F58" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="7">
+        <v>5</v>
+      </c>
+      <c r="C59" s="7">
+        <v>10</v>
+      </c>
+      <c r="D59" s="7">
+        <v>5</v>
+      </c>
+      <c r="E59" s="7">
+        <v>5</v>
+      </c>
+      <c r="F59" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="7">
+        <v>5</v>
+      </c>
+      <c r="C60" s="7">
+        <v>5</v>
+      </c>
+      <c r="D60" s="7">
+        <v>10</v>
+      </c>
+      <c r="E60" s="7">
+        <v>5</v>
+      </c>
+      <c r="F60" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="7">
+        <v>5</v>
+      </c>
+      <c r="C61" s="7">
+        <v>5</v>
+      </c>
+      <c r="D61" s="7">
+        <v>5</v>
+      </c>
+      <c r="E61" s="7">
+        <v>10</v>
+      </c>
+      <c r="F61" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7"/>
+    </row>
+    <row r="101" spans="1:1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1247,12 +2477,1189 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="7"/>
+    <col min="2" max="2" width="30.6640625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="20.44140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="14" style="7" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="13"/>
+    <col min="14" max="16384" width="11.5546875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="7">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="7">
+        <v>5</v>
+      </c>
+      <c r="K2" s="14">
+        <v>15</v>
+      </c>
+      <c r="M2" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="7">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="7">
+        <v>10</v>
+      </c>
+      <c r="K3" s="14">
+        <v>15</v>
+      </c>
+      <c r="M3" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="7">
+        <v>5</v>
+      </c>
+      <c r="K4" s="14">
+        <v>10</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="7">
+        <v>10</v>
+      </c>
+      <c r="K5" s="14">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="7">
+        <v>10</v>
+      </c>
+      <c r="K6" s="14">
+        <v>10</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="1">
+        <f>SUM(J2:J6)</f>
+        <v>40</v>
+      </c>
+      <c r="K7" s="15">
+        <f>SUM(K2:K6)</f>
+        <v>60</v>
+      </c>
+      <c r="M7" s="13">
+        <f>SUM(M2:M6)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="7">
+        <v>10</v>
+      </c>
+      <c r="K10" s="14">
+        <v>15</v>
+      </c>
+      <c r="M10" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="7">
+        <v>5</v>
+      </c>
+      <c r="K11" s="14">
+        <v>10</v>
+      </c>
+      <c r="M11" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="7">
+        <v>10</v>
+      </c>
+      <c r="K12" s="14">
+        <v>15</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5</v>
+      </c>
+      <c r="G13" s="7">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="7">
+        <v>5</v>
+      </c>
+      <c r="K13" s="14">
+        <v>10</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5</v>
+      </c>
+      <c r="E14" s="7">
+        <v>15</v>
+      </c>
+      <c r="F14" s="7">
+        <v>5</v>
+      </c>
+      <c r="G14" s="7">
+        <v>15</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="7">
+        <v>5</v>
+      </c>
+      <c r="K14" s="14">
+        <v>10</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5</v>
+      </c>
+      <c r="E15" s="7">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="1">
+        <f>SUM(J10:J14)</f>
+        <v>35</v>
+      </c>
+      <c r="K15" s="15">
+        <f>SUM(K10:K14)</f>
+        <v>60</v>
+      </c>
+      <c r="M15" s="13">
+        <f>SUM(M10:M14)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5</v>
+      </c>
+      <c r="G18" s="7">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5</v>
+      </c>
+      <c r="G19" s="7">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="16">
+        <v>5</v>
+      </c>
+      <c r="M19" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="7">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5</v>
+      </c>
+      <c r="E20" s="7">
+        <v>5</v>
+      </c>
+      <c r="F20" s="7">
+        <v>10</v>
+      </c>
+      <c r="G20" s="7">
+        <v>10</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="7">
+        <v>2</v>
+      </c>
+      <c r="K20" s="16">
+        <v>5</v>
+      </c>
+      <c r="M20" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="16">
+        <v>5</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7">
+        <v>5</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5</v>
+      </c>
+      <c r="G22" s="7">
+        <v>10</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="7">
+        <v>3</v>
+      </c>
+      <c r="K22" s="16">
+        <v>5</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="7">
+        <v>5</v>
+      </c>
+      <c r="D23" s="7">
+        <v>10</v>
+      </c>
+      <c r="E23" s="7">
+        <v>5</v>
+      </c>
+      <c r="F23" s="7">
+        <v>5</v>
+      </c>
+      <c r="G23" s="7">
+        <v>10</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="7">
+        <v>2</v>
+      </c>
+      <c r="K23" s="16">
+        <v>5</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="7">
+        <v>5</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5</v>
+      </c>
+      <c r="E24" s="7">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7">
+        <v>5</v>
+      </c>
+      <c r="G24" s="7">
+        <v>10</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="1">
+        <f>SUM(J19:J23)</f>
+        <v>9</v>
+      </c>
+      <c r="K24" s="15">
+        <f>SUM(K19:K23)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5</v>
+      </c>
+      <c r="E25" s="7">
+        <v>5</v>
+      </c>
+      <c r="F25" s="7">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7">
+        <v>10</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B28"/>
+      <c r="J28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M36" s="7"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M51" s="7"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M54" s="7"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M55" s="7"/>
+    </row>
+    <row r="56" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M56" s="7"/>
+    </row>
+    <row r="58" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M58" s="7"/>
+    </row>
+    <row r="59" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M59" s="7"/>
+    </row>
+    <row r="60" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M60" s="7"/>
+    </row>
+    <row r="61" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M61" s="7"/>
+    </row>
+    <row r="63" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M63" s="7"/>
+    </row>
+    <row r="68" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M68" s="7"/>
+    </row>
+    <row r="100" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M100" s="7"/>
+    </row>
+    <row r="101" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M101" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.21875" style="7" customWidth="1"/>
+    <col min="2" max="7" width="20.44140625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="7">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>